--- a/04-CAF Advanced - Landing Zones Accelerator/sources/Azure Network Documentation Template.xlsx
+++ b/04-CAF Advanced - Landing Zones Accelerator/sources/Azure Network Documentation Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/jovella_microsoft_com/Documents/Git/CAF-Expert-Learning-Path/04-CAF Advanced - Landing Zones Accelerator/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E489F088-6B2F-471E-B231-1A059A82CF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E489F088-6B2F-471E-B231-1A059A82CF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB7373B-CE99-46EE-A8C3-E55EDCAA0311}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{C820F456-7308-4348-96BC-0FE680A270E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Subnet Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Firewall</t>
+  </si>
+  <si>
+    <t>AzureBastiuoin</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3A99E0-BDF6-4077-AD11-335A99E92C0A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -516,6 +519,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://docs.microsoft.com/en-us/azure/firewall/firewall-faq" xr:uid="{BCD81901-FB6C-41E8-ABE5-49D8260F4149}"/>
